--- a/data/evaluation/evaluation_Center_Summer_Watermelons.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Watermelons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10112.3045112782</v>
+        <v>10136.27067669173</v>
       </c>
       <c r="C3" t="n">
-        <v>152204068.683143</v>
+        <v>152403929.3840023</v>
       </c>
       <c r="D3" t="n">
-        <v>12337.10130797113</v>
+        <v>12345.19863687913</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08556852404113724</v>
+        <v>0.08436777482822755</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9688.994767270253</v>
+        <v>9910.022256107763</v>
       </c>
       <c r="C4" t="n">
-        <v>147636852.8177818</v>
+        <v>151093338.0438797</v>
       </c>
       <c r="D4" t="n">
-        <v>12150.59063658149</v>
+        <v>12292.00301187238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1130080398235923</v>
+        <v>0.0922417165953302</v>
       </c>
     </row>
     <row r="5">
